--- a/biology/Médecine/Lévosimendan/Lévosimendan.xlsx
+++ b/biology/Médecine/Lévosimendan/Lévosimendan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9vosimendan</t>
+          <t>Lévosimendan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lévosimendan est un médicament de la famille des sensibilisateurs calciques, utilisé en perfusion intraveineuse dans le traitement de l'insuffisance cardiaque aiguë congestive.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9vosimendan</t>
+          <t>Lévosimendan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">il augmente la contraction du muscle cardiaque et en améliore la relaxation[2], sans augmenter la consommation de ce dernier en oxygène[3]. Il a une action vasodilatatrice[4], en particulier au niveau des artères coronaires[3].
-Finalement, il améliore les symptômes d'une insuffisance cardiaque décompensée[5], mais sans faire mieux que la dobutamine[6] et sans démonstration d'un gain sur le pronostic de la maladie[4]. 
-Une forme orale a été développée, permettant au moins une amélioration de la qualité de vie des personnes ayant une insuffisance cardiaque grave[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">il augmente la contraction du muscle cardiaque et en améliore la relaxation, sans augmenter la consommation de ce dernier en oxygène. Il a une action vasodilatatrice, en particulier au niveau des artères coronaires.
+Finalement, il améliore les symptômes d'une insuffisance cardiaque décompensée, mais sans faire mieux que la dobutamine et sans démonstration d'un gain sur le pronostic de la maladie. 
+Une forme orale a été développée, permettant au moins une amélioration de la qualité de vie des personnes ayant une insuffisance cardiaque grave.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9vosimendan</t>
+          <t>Lévosimendan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Mise en marché</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Orion Corporation a initialement développé ce médicament et a fait application pour une demande de drogue nouvelle en 1998 aux États-Unis. Toutefois, la FDA a demandé que d'autres essais cliniques soient effectués et Orion a retiré sa demande en novembre 1999. Par contre, Orion a réussi à obtenir l'autorisation de commercialiser le médicament en Suède en 2000. Depuis cette date, près de 40 autres pays à travers le monde ont approuvé le médicament, mais il reste sans licence aux États-Unis, au Canada et de nombreux autres pays européens[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Orion Corporation a initialement développé ce médicament et a fait application pour une demande de drogue nouvelle en 1998 aux États-Unis. Toutefois, la FDA a demandé que d'autres essais cliniques soient effectués et Orion a retiré sa demande en novembre 1999. Par contre, Orion a réussi à obtenir l'autorisation de commercialiser le médicament en Suède en 2000. Depuis cette date, près de 40 autres pays à travers le monde ont approuvé le médicament, mais il reste sans licence aux États-Unis, au Canada et de nombreux autres pays européens.
 </t>
         </is>
       </c>
